--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2633733333333333</v>
+        <v>0.3275576666666667</v>
       </c>
       <c r="H2">
-        <v>0.7901199999999999</v>
+        <v>0.982673</v>
       </c>
       <c r="I2">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="J2">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N2">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O2">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P2">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q2">
-        <v>0.342679872511111</v>
+        <v>0.3679517505623334</v>
       </c>
       <c r="R2">
-        <v>3.084118852599999</v>
+        <v>3.311565755061</v>
       </c>
       <c r="S2">
-        <v>0.002315124552786701</v>
+        <v>0.002772473151769781</v>
       </c>
       <c r="T2">
-        <v>0.002315124552786701</v>
+        <v>0.002772473151769781</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2633733333333333</v>
+        <v>0.3275576666666667</v>
       </c>
       <c r="H3">
-        <v>0.7901199999999999</v>
+        <v>0.982673</v>
       </c>
       <c r="I3">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="J3">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.622946</v>
       </c>
       <c r="O3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q3">
-        <v>2.951795788168888</v>
+        <v>3.671151246073111</v>
       </c>
       <c r="R3">
-        <v>26.56616209352</v>
+        <v>33.040361214658</v>
       </c>
       <c r="S3">
-        <v>0.01994215433175343</v>
+        <v>0.02766169273625899</v>
       </c>
       <c r="T3">
-        <v>0.01994215433175343</v>
+        <v>0.02766169273625899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2633733333333333</v>
+        <v>0.3275576666666667</v>
       </c>
       <c r="H4">
-        <v>0.7901199999999999</v>
+        <v>0.982673</v>
       </c>
       <c r="I4">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="J4">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N4">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q4">
-        <v>1.591809463786667</v>
+        <v>1.624234215458445</v>
       </c>
       <c r="R4">
-        <v>14.32628517408</v>
+        <v>14.618107939126</v>
       </c>
       <c r="S4">
-        <v>0.01075416874053861</v>
+        <v>0.01223841372588206</v>
       </c>
       <c r="T4">
-        <v>0.01075416874053861</v>
+        <v>0.01223841372588206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2633733333333333</v>
+        <v>0.3275576666666667</v>
       </c>
       <c r="H5">
-        <v>0.7901199999999999</v>
+        <v>0.982673</v>
       </c>
       <c r="I5">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="J5">
-        <v>0.03985693834931883</v>
+        <v>0.05486041027915935</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N5">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O5">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P5">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q5">
-        <v>1.013255155466666</v>
+        <v>1.617521030266</v>
       </c>
       <c r="R5">
-        <v>9.1192963992</v>
+        <v>14.557689272394</v>
       </c>
       <c r="S5">
-        <v>0.006845490724240087</v>
+        <v>0.01218783066524852</v>
       </c>
       <c r="T5">
-        <v>0.006845490724240086</v>
+        <v>0.01218783066524852</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>15.556131</v>
       </c>
       <c r="I6">
-        <v>0.7847159345680752</v>
+        <v>0.8684635977749966</v>
       </c>
       <c r="J6">
-        <v>0.7847159345680751</v>
+        <v>0.8684635977749967</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N6">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O6">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P6">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q6">
-        <v>6.746789079944999</v>
+        <v>5.824832506263001</v>
       </c>
       <c r="R6">
-        <v>60.72110171950499</v>
+        <v>52.42349255636701</v>
       </c>
       <c r="S6">
-        <v>0.04558090014740337</v>
+        <v>0.0438894276559075</v>
       </c>
       <c r="T6">
-        <v>0.04558090014740335</v>
+        <v>0.0438894276559075</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>15.556131</v>
       </c>
       <c r="I7">
-        <v>0.7847159345680752</v>
+        <v>0.8684635977749966</v>
       </c>
       <c r="J7">
-        <v>0.7847159345680751</v>
+        <v>0.8684635977749967</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33.622946</v>
       </c>
       <c r="O7">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P7">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q7">
         <v>58.11588362021399</v>
@@ -883,10 +883,10 @@
         <v>523.042952581926</v>
       </c>
       <c r="S7">
-        <v>0.392627404959973</v>
+        <v>0.4378963458719158</v>
       </c>
       <c r="T7">
-        <v>0.3926274049599729</v>
+        <v>0.437896345871916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>15.556131</v>
       </c>
       <c r="I8">
-        <v>0.7847159345680752</v>
+        <v>0.8684635977749966</v>
       </c>
       <c r="J8">
-        <v>0.7847159345680751</v>
+        <v>0.8684635977749967</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N8">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O8">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P8">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q8">
-        <v>31.340045240856</v>
+        <v>25.712317556658</v>
       </c>
       <c r="R8">
-        <v>282.0604071677041</v>
+        <v>231.410858009922</v>
       </c>
       <c r="S8">
-        <v>0.2117314556319592</v>
+        <v>0.1937392877915841</v>
       </c>
       <c r="T8">
-        <v>0.2117314556319592</v>
+        <v>0.1937392877915841</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>15.556131</v>
       </c>
       <c r="I9">
-        <v>0.7847159345680752</v>
+        <v>0.8684635977749966</v>
       </c>
       <c r="J9">
-        <v>0.7847159345680751</v>
+        <v>0.8684635977749967</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N9">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O9">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P9">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q9">
-        <v>19.94928610194</v>
+        <v>25.606044983502</v>
       </c>
       <c r="R9">
-        <v>179.54357491746</v>
+        <v>230.454404851518</v>
       </c>
       <c r="S9">
-        <v>0.1347761738287395</v>
+        <v>0.1929385364555891</v>
       </c>
       <c r="T9">
-        <v>0.1347761738287395</v>
+        <v>0.1929385364555891</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5638536666666667</v>
+        <v>0.1537743333333333</v>
       </c>
       <c r="H10">
-        <v>1.691561</v>
+        <v>0.461323</v>
       </c>
       <c r="I10">
-        <v>0.08532937084381123</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="J10">
-        <v>0.0853293708438112</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N10">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O10">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P10">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q10">
-        <v>0.7336403430172221</v>
+        <v>0.1727376303456667</v>
       </c>
       <c r="R10">
-        <v>6.602763087154999</v>
+        <v>1.554638673111</v>
       </c>
       <c r="S10">
-        <v>0.004956429913983226</v>
+        <v>0.001301557722450795</v>
       </c>
       <c r="T10">
-        <v>0.004956429913983224</v>
+        <v>0.001301557722450795</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5638536666666667</v>
+        <v>0.1537743333333333</v>
       </c>
       <c r="H11">
-        <v>1.691561</v>
+        <v>0.461323</v>
       </c>
       <c r="I11">
-        <v>0.08532937084381123</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="J11">
-        <v>0.0853293708438112</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>33.622946</v>
       </c>
       <c r="O11">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P11">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q11">
-        <v>6.319473795411778</v>
+        <v>1.723448701950889</v>
       </c>
       <c r="R11">
-        <v>56.875264158706</v>
+        <v>15.511038317558</v>
       </c>
       <c r="S11">
-        <v>0.04269398385507919</v>
+        <v>0.01298598320923563</v>
       </c>
       <c r="T11">
-        <v>0.04269398385507918</v>
+        <v>0.01298598320923563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5638536666666667</v>
+        <v>0.1537743333333333</v>
       </c>
       <c r="H12">
-        <v>1.691561</v>
+        <v>0.461323</v>
       </c>
       <c r="I12">
-        <v>0.08532937084381123</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="J12">
-        <v>0.0853293708438112</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N12">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O12">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P12">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q12">
-        <v>3.407890963869334</v>
+        <v>0.7625085872695557</v>
       </c>
       <c r="R12">
-        <v>30.67101867482401</v>
+        <v>6.862577285426001</v>
       </c>
       <c r="S12">
-        <v>0.0230235058331826</v>
+        <v>0.005745412497611197</v>
       </c>
       <c r="T12">
-        <v>0.02302350583318259</v>
+        <v>0.005745412497611197</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5638536666666667</v>
+        <v>0.1537743333333333</v>
       </c>
       <c r="H13">
-        <v>1.691561</v>
+        <v>0.461323</v>
       </c>
       <c r="I13">
-        <v>0.08532937084381123</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="J13">
-        <v>0.0853293708438112</v>
+        <v>0.02575461934052592</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N13">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O13">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P13">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q13">
-        <v>2.169269103473333</v>
+        <v>0.7593570335660002</v>
       </c>
       <c r="R13">
-        <v>19.52342193126</v>
+        <v>6.834213302094001</v>
       </c>
       <c r="S13">
-        <v>0.0146554512415662</v>
+        <v>0.005721665911228295</v>
       </c>
       <c r="T13">
-        <v>0.0146554512415662</v>
+        <v>0.005721665911228296</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.595363</v>
+        <v>0.3040386666666667</v>
       </c>
       <c r="H14">
-        <v>1.786089</v>
+        <v>0.9121160000000001</v>
       </c>
       <c r="I14">
-        <v>0.09009775623879478</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="J14">
-        <v>0.09009775623879476</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N14">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O14">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P14">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q14">
-        <v>0.7746377142883332</v>
+        <v>0.3415324110013335</v>
       </c>
       <c r="R14">
-        <v>6.971739428594999</v>
+        <v>3.073791699012001</v>
       </c>
       <c r="S14">
-        <v>0.005233405681873952</v>
+        <v>0.00257340653635507</v>
       </c>
       <c r="T14">
-        <v>0.005233405681873951</v>
+        <v>0.00257340653635507</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.595363</v>
+        <v>0.3040386666666667</v>
       </c>
       <c r="H15">
-        <v>1.786089</v>
+        <v>0.9121160000000001</v>
       </c>
       <c r="I15">
-        <v>0.09009775623879478</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="J15">
-        <v>0.09009775623879476</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>33.622946</v>
       </c>
       <c r="O15">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P15">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q15">
-        <v>6.672619333132666</v>
+        <v>3.407558557081778</v>
       </c>
       <c r="R15">
-        <v>60.053573998194</v>
+        <v>30.668027013736</v>
       </c>
       <c r="S15">
-        <v>0.04507981381087323</v>
+        <v>0.02567555283581171</v>
       </c>
       <c r="T15">
-        <v>0.04507981381087323</v>
+        <v>0.02567555283581172</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.595363</v>
+        <v>0.3040386666666667</v>
       </c>
       <c r="H16">
-        <v>1.786089</v>
+        <v>0.9121160000000001</v>
       </c>
       <c r="I16">
-        <v>0.09009775623879478</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="J16">
-        <v>0.09009775623879476</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N16">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O16">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P16">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q16">
-        <v>3.598331105864001</v>
+        <v>1.507612415999112</v>
       </c>
       <c r="R16">
-        <v>32.38497995277601</v>
+        <v>13.568511743992</v>
       </c>
       <c r="S16">
-        <v>0.02431010794767867</v>
+        <v>0.01135968218725521</v>
       </c>
       <c r="T16">
-        <v>0.02431010794767866</v>
+        <v>0.01135968218725521</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.595363</v>
+        <v>0.3040386666666667</v>
       </c>
       <c r="H17">
-        <v>1.786089</v>
+        <v>0.9121160000000001</v>
       </c>
       <c r="I17">
-        <v>0.09009775623879478</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="J17">
-        <v>0.09009775623879476</v>
+        <v>0.05092137260531806</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N17">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O17">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P17">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q17">
-        <v>2.29049244086</v>
+        <v>1.501381244872001</v>
       </c>
       <c r="R17">
-        <v>20.61443196774</v>
+        <v>13.512431203848</v>
       </c>
       <c r="S17">
-        <v>0.01547442879836892</v>
+        <v>0.01131273104589606</v>
       </c>
       <c r="T17">
-        <v>0.01547442879836892</v>
+        <v>0.01131273104589606</v>
       </c>
     </row>
   </sheetData>
